--- a/medicine/Pharmacie/Sératicine/Sératicine.xlsx
+++ b/medicine/Pharmacie/Sératicine/Sératicine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>S%C3%A9raticine</t>
+          <t>Sératicine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Sératicine est le nom donné au composé chimique extrait des sécrétions de l'asticot de la Mouche verte commune (Lucilia sericata).
 Ce composé est un puissant antibiotique testé avec succès en laboratoire sur douze souches différentes de Staphylococcus aureus résistant à la méticilline (SARM) ainsi que sur d'autres bactéries impliquées dans les infections nosocomiales.
